--- a/紙製品管理/01_紙製品ID/紙製品関連設計図.xlsx
+++ b/紙製品管理/01_紙製品ID/紙製品関連設計図.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\封筒管理\01_封筒管理\01_紙製品ID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\紙製品管理\01_紙製品ID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA409E3-19DB-459E-964D-ADBAF7510C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC9A704-7AD8-4346-AF4A-D18EAFCE90EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -85,14 +96,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>356906</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>375957</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
@@ -109,8 +120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2447925" y="1362075"/>
-          <a:ext cx="1390650" cy="752475"/>
+          <a:off x="1724024" y="1348068"/>
+          <a:ext cx="1386168" cy="744070"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -378,14 +389,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>366431</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>419099</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -405,8 +416,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2762250" y="2495550"/>
-          <a:ext cx="781050" cy="19050"/>
+          <a:off x="2400299" y="2108946"/>
+          <a:ext cx="769844" cy="736227"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -431,8 +442,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>375957</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>72838</xdr:rowOff>
     </xdr:from>
@@ -458,8 +469,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3827369" y="1720103"/>
-          <a:ext cx="941854" cy="683559"/>
+          <a:off x="3110192" y="1720103"/>
+          <a:ext cx="1659031" cy="683559"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3236,7 +3247,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
